--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>Login</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>06/05/2022 12:20:40 PM</t>
+  </si>
+  <si>
+    <t>06/05/2022 12:56:58 PM</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -965,6 +968,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
   <si>
     <t>Login</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>06/05/2022 12:56:58 PM</t>
+  </si>
+  <si>
+    <t>06/05/2022 03:20:58 PM</t>
+  </si>
+  <si>
+    <t>06/05/2022 07:02:00 PM</t>
+  </si>
+  <si>
+    <t>06/05/2022 09:29:10 PM</t>
+  </si>
+  <si>
+    <t>06/05/2022 09:29:29 PM</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,6 +994,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>Login</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>06/05/2022 09:29:29 PM</t>
+  </si>
+  <si>
+    <t>07/05/2022 03:29:56 AM</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1050,6 +1053,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>Login</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>07/05/2022 03:29:56 AM</t>
+  </si>
+  <si>
+    <t>07/05/2022 03:36:31 AM</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1067,6 +1070,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
   <si>
     <t>Login</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>07/05/2022 03:36:31 AM</t>
+  </si>
+  <si>
+    <t>07/05/2022 05:55:09 AM</t>
+  </si>
+  <si>
+    <t>07/05/2022 12:17:14 PM</t>
+  </si>
+  <si>
+    <t>08/05/2022 09:09:46 PM</t>
+  </si>
+  <si>
+    <t>08/05/2022 09:57:08 PM</t>
+  </si>
+  <si>
+    <t>09/05/2022 01:45:40 AM</t>
   </si>
 </sst>
 </file>
@@ -462,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,6 +1099,90 @@
         <v>38</v>
       </c>
     </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
   <si>
     <t>Login</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>09/05/2022 01:45:40 AM</t>
+  </si>
+  <si>
+    <t>09/05/2022 02:31:17 AM</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,6 +1186,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>Login</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>09/05/2022 02:31:17 AM</t>
+  </si>
+  <si>
+    <t>09/05/2022 03:20:46 AM</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,6 +1203,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>Login</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>09/05/2022 03:20:46 AM</t>
+  </si>
+  <si>
+    <t>09/05/2022 10:25:20 AM</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1217,6 +1220,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/server_activities_log.xlsx
+++ b/static/server_activities_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t>Login</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>09/05/2022 10:25:20 AM</t>
+  </si>
+  <si>
+    <t>02/06/2022 04:21:15 PM</t>
+  </si>
+  <si>
+    <t>11/06/2022 11:09:48 AM</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,6 +1240,34 @@
         <v>46</v>
       </c>
     </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
